--- a/ComponentList.xlsx
+++ b/ComponentList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvand\Documents\Syn-Dijk(ICT)\SynologyDrive\Study\PXL Hogeschool\Project Ontwerpen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1582225F-CF76-407B-ABE9-A368EC2D84DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C30FA99-9333-4107-9E5C-61A7E58AB7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="-10" windowWidth="19200" windowHeight="11170" xr2:uid="{2C836216-4525-48CB-A0D5-2E4C66672729}"/>
+    <workbookView xWindow="1725" yWindow="-19890" windowWidth="28800" windowHeight="15225" xr2:uid="{2C836216-4525-48CB-A0D5-2E4C66672729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
   <si>
     <t>Onderdeel</t>
   </si>
@@ -231,6 +231,123 @@
   </si>
   <si>
     <t>26µH</t>
+  </si>
+  <si>
+    <t>Transistoren</t>
+  </si>
+  <si>
+    <t>BC547</t>
+  </si>
+  <si>
+    <t>BC557</t>
+  </si>
+  <si>
+    <t>BDW94C</t>
+  </si>
+  <si>
+    <t>BDW93C</t>
+  </si>
+  <si>
+    <t>47KΩ</t>
+  </si>
+  <si>
+    <t>220KΩ</t>
+  </si>
+  <si>
+    <t>120KΩ</t>
+  </si>
+  <si>
+    <t>1.2KΩ</t>
+  </si>
+  <si>
+    <t>1.8KΩ</t>
+  </si>
+  <si>
+    <t>2KΩ</t>
+  </si>
+  <si>
+    <t>5KΩ</t>
+  </si>
+  <si>
+    <t>Regelbare weerstand (potmeter)</t>
+  </si>
+  <si>
+    <t>0.33Ω</t>
+  </si>
+  <si>
+    <t>180Ω</t>
+  </si>
+  <si>
+    <t>390Ω</t>
+  </si>
+  <si>
+    <t>12Ω</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>BD139</t>
+  </si>
+  <si>
+    <t>1.0µF</t>
+  </si>
+  <si>
+    <t>10µF</t>
+  </si>
+  <si>
+    <t>47pF</t>
+  </si>
+  <si>
+    <t>20pF</t>
+  </si>
+  <si>
+    <t>0.1µF</t>
+  </si>
+  <si>
+    <t>2000µF</t>
+  </si>
+  <si>
+    <t>0.33Ω, 1W</t>
+  </si>
+  <si>
+    <t>10Ω, 0.25W</t>
+  </si>
+  <si>
+    <t>12Ω, 0.5W</t>
+  </si>
+  <si>
+    <t>180Ω, 0.5W</t>
+  </si>
+  <si>
+    <t>500 mW</t>
+  </si>
+  <si>
+    <t>1.5W</t>
+  </si>
+  <si>
+    <t>80W</t>
+  </si>
+  <si>
+    <t>PNP Darlington</t>
+  </si>
+  <si>
+    <t>NPN Darlington</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>PNP</t>
+  </si>
+  <si>
+    <t>390Ω, 0.5W</t>
+  </si>
+  <si>
+    <t>470Ω</t>
+  </si>
+  <si>
+    <t>470Ω, 1W</t>
   </si>
 </sst>
 </file>
@@ -296,7 +413,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7024AAE9-CE91-40E3-9A7A-50A30CB97061}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,7 +1078,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
@@ -967,6 +1086,455 @@
       </c>
       <c r="C32" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G72">
+        <f>SUM(G37:G71)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
